--- a/Excel Policies/DoubleQ.xlsx
+++ b/Excel Policies/DoubleQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/CU Boulder Classes/DMU/FINAL PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Documents/GitHub/blackjackAI/Excel Policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813146BA-ADEF-6249-8788-D27148D65D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDDA7F-777F-B842-9163-5F075ECE8357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="2320" windowWidth="14340" windowHeight="14000" xr2:uid="{68A7BB8D-7DC8-BC4B-A18B-CCE0249F3626}"/>
+    <workbookView xWindow="10660" yWindow="680" windowWidth="14340" windowHeight="14000" xr2:uid="{68A7BB8D-7DC8-BC4B-A18B-CCE0249F3626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,13 +180,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36030BC7-10D2-394F-945E-6E97264BDAFA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,34 +539,34 @@
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -603,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -641,7 +641,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2">
         <v>20</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2">
         <v>19</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2">
         <v>18</v>
       </c>
@@ -749,12 +749,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -785,7 +785,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2">
         <v>16</v>
       </c>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2">
         <v>15</v>
       </c>
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -841,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2">
         <v>14</v>
       </c>
@@ -868,10 +868,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -889,11 +889,11 @@
         <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2">
         <v>13</v>
       </c>
@@ -907,13 +907,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2">
         <v>5</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1210,14 +1210,14 @@
         <v>11</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>4</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -1289,12 +1289,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1303,19 +1303,19 @@
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>11</v>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1345,23 +1345,23 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
